--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_10_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_10_6.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_24</t>
+          <t>model_10_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2200609216563121</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.806589320880257</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2423415234123999</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.44609077698023</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F2" t="n">
-        <v>1.350247979164124</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G2" t="n">
-        <v>8.29749870300293</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1163905635476112</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I2" t="n">
-        <v>4.447566509246826</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_23</t>
+          <t>model_10_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2184245386262513</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.795979121727713</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2423171073402162</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.437438362734413</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F3" t="n">
-        <v>1.348436951637268</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G3" t="n">
-        <v>8.286221504211426</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1163943111896515</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I3" t="n">
-        <v>4.441596031188965</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_22</t>
+          <t>model_10_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2181935830249855</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.794699698424169</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2440432040587001</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.436211854919855</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F4" t="n">
-        <v>1.348181366920471</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G4" t="n">
-        <v>8.28486156463623</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1161291524767876</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I4" t="n">
-        <v>4.440749645233154</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_21</t>
+          <t>model_10_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2163126079995819</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.781063513138476</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2331287479521702</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.426238210127059</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F5" t="n">
-        <v>1.346099734306335</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G5" t="n">
-        <v>8.270367622375488</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1178058236837387</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I5" t="n">
-        <v>4.433868408203125</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_20</t>
+          <t>model_10_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2157832184864479</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.77755501844649</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2326603628112202</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.42341895165957</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F6" t="n">
-        <v>1.345513701438904</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G6" t="n">
-        <v>8.266637802124023</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1178777664899826</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I6" t="n">
-        <v>4.431923389434814</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_19</t>
+          <t>model_10_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2134047300400554</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.762691602650817</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2371425879754581</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.410839632470879</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F7" t="n">
-        <v>1.342881441116333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G7" t="n">
-        <v>8.250840187072754</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1171892136335373</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I7" t="n">
-        <v>4.423243999481201</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_18</t>
+          <t>model_10_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.212669518779574</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.757144594804736</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2311429088835791</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.406937004089493</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F8" t="n">
-        <v>1.342067837715149</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G8" t="n">
-        <v>8.244945526123047</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1181108877062798</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I8" t="n">
-        <v>4.420551300048828</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_17</t>
+          <t>model_10_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2101252046820301</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.739551300512984</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2228873212153111</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.393455826912675</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F9" t="n">
-        <v>1.33925187587738</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G9" t="n">
-        <v>8.226244926452637</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1193790957331657</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I9" t="n">
-        <v>4.41124963760376</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_16</t>
+          <t>model_10_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2098262509778401</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.737809598002315</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2244622646382531</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.391869826248332</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F10" t="n">
-        <v>1.338921189308167</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G10" t="n">
-        <v>8.224392890930176</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1191371530294418</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I10" t="n">
-        <v>4.410155773162842</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_15</t>
+          <t>model_10_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2080766296275114</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.726053520160446</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2214564908234644</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.382595596566065</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F11" t="n">
-        <v>1.336984872817993</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G11" t="n">
-        <v>8.211898803710938</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1195988953113556</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I11" t="n">
-        <v>4.403757095336914</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_14</t>
+          <t>model_10_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2071378678353191</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.719607560835492</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2188297122361191</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.377614492716834</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F12" t="n">
-        <v>1.335945963859558</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G12" t="n">
-        <v>8.205046653747559</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H12" t="n">
-        <v>0.120002418756485</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I12" t="n">
-        <v>4.400319576263428</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_13</t>
+          <t>model_10_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.20642195960589</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.710321167660402</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1833522850454374</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.3737587042579</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F13" t="n">
-        <v>1.335153698921204</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G13" t="n">
-        <v>8.195176124572754</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1254524141550064</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I13" t="n">
-        <v>4.397659301757812</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="14">
@@ -854,400 +854,400 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2059818344560382</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.707425645053449</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1829948248433992</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.371433554277508</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F14" t="n">
-        <v>1.334666609764099</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G14" t="n">
-        <v>8.192098617553711</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1255073249340057</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I14" t="n">
-        <v>4.396055221557617</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_11</t>
+          <t>model_10_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2032234502189318</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.681572777613051</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1220119325925112</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.356736177129859</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F15" t="n">
-        <v>1.331613779067993</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G15" t="n">
-        <v>8.164621353149414</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1348754465579987</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I15" t="n">
-        <v>4.38591480255127</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_10</t>
+          <t>model_10_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2026944332902532</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.676655417753551</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D16" t="n">
-        <v>0.110725223718363</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.353914429842519</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F16" t="n">
-        <v>1.33102822303772</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G16" t="n">
-        <v>8.159394264221191</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1366093009710312</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I16" t="n">
-        <v>4.383967876434326</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_9</t>
+          <t>model_10_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2013395843854391</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.664543563699513</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08531668205533294</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.346695110447711</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F17" t="n">
-        <v>1.32952880859375</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G17" t="n">
-        <v>8.146519660949707</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1405125111341476</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I17" t="n">
-        <v>4.378986358642578</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_8</t>
+          <t>model_10_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1999864856527716</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.645949309605773</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01001947838910433</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.339422694807955</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F18" t="n">
-        <v>1.328031420707703</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G18" t="n">
-        <v>8.126757621765137</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1520795822143555</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I18" t="n">
-        <v>4.373968601226807</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_7</t>
+          <t>model_10_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.198698884131387</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.606342466357614</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2257642100030197</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.331824294126492</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F19" t="n">
-        <v>1.326606512069702</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G19" t="n">
-        <v>8.084659576416016</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1883003860712051</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I19" t="n">
-        <v>4.368726253509521</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_6</t>
+          <t>model_10_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1944067896162893</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.583188412209549</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1650311411170173</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.306575177748134</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F20" t="n">
-        <v>1.321856260299683</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G20" t="n">
-        <v>8.060050010681152</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1789706498384476</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I20" t="n">
-        <v>4.351305961608887</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_5</t>
+          <t>model_10_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1735935222531666</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.481201353214645</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1270124763797372</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.192805459646439</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F21" t="n">
-        <v>1.298822283744812</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G21" t="n">
-        <v>7.951649188995361</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1341072767972946</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I21" t="n">
-        <v>4.27280855178833</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_4</t>
+          <t>model_10_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1688662556328164</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.412760851165155</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1348306842240636</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E22" t="n">
-        <v>-5.164420919655238</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F22" t="n">
-        <v>1.293590426445007</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G22" t="n">
-        <v>7.878904342651367</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1743312925100327</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I22" t="n">
-        <v>4.253223896026611</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_3</t>
+          <t>model_10_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1280208857752434</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.158629855081614</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03039287961689208</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E23" t="n">
-        <v>-4.939847441659525</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F23" t="n">
-        <v>1.248386740684509</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G23" t="n">
-        <v>7.608792781829834</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1489498466253281</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I23" t="n">
-        <v>4.098276615142822</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_2</t>
+          <t>model_10_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1128308617246656</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.979637431904859</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05687394648527855</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E24" t="n">
-        <v>-4.803012978168155</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F24" t="n">
-        <v>1.231575846672058</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G24" t="n">
-        <v>7.418544292449951</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1623556762933731</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I24" t="n">
-        <v>4.003866195678711</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_1</t>
+          <t>model_10_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1090133383857141</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.819938457417759</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.366920135312609</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E25" t="n">
-        <v>-4.705254415657276</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F25" t="n">
-        <v>1.227350950241089</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G25" t="n">
-        <v>7.24880313873291</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2099845856428146</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I25" t="n">
-        <v>3.936416149139404</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_6_0</t>
+          <t>model_10_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02528744623023926</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.904689693005031</v>
+        <v>-0.3154660929854114</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.210305557774978</v>
+        <v>0.9853257330522036</v>
       </c>
       <c r="E26" t="n">
-        <v>-3.231629800297236</v>
+        <v>0.4742282943685033</v>
       </c>
       <c r="F26" t="n">
-        <v>1.134690999984741</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G26" t="n">
-        <v>5.21311616897583</v>
+        <v>1.285408496856689</v>
       </c>
       <c r="H26" t="n">
-        <v>0.339544415473938</v>
+        <v>0.02459991723299026</v>
       </c>
       <c r="I26" t="n">
-        <v>2.919669151306152</v>
+        <v>0.6920872926712036</v>
       </c>
     </row>
   </sheetData>
